--- a/phi__n1.xlsx
+++ b/phi__n1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,2556 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9999941769696575</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9999941769696575</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9999947099891445</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9999947099891445</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.9999947099926998</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
